--- a/xlsx/聖文森_intext.xlsx
+++ b/xlsx/聖文森_intext.xlsx
@@ -29,7 +29,7 @@
     <t>圣文森特和格林纳丁斯国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_聖文森</t>
+    <t>体育运动_体育运动_南非_聖文森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E6%96%87%E6%A3%AE%E7%89%B9%E5%92%8C%E6%A0%BC%E6%9E%97%E7%BA%B3%E4%B8%81%E6%96%AF%E5%9B%BD%E5%BE%BD</t>
